--- a/WashboardOptimizationResults.xlsx
+++ b/WashboardOptimizationResults.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pablo_yz7clw8\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pablo\Desktop\InvestigacionUSFQ\washBoardAnalsys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF20C94-0641-41D0-9295-283DDE326EE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCABEB59-8612-44CB-A6DD-36DD28D4F04F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4193283B-5A51-4323-A9A0-950ABABF1C14}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{4193283B-5A51-4323-A9A0-950ABABF1C14}"/>
   </bookViews>
   <sheets>
     <sheet name="ResultsOptimization" sheetId="1" r:id="rId1"/>
+    <sheet name="Fig 7 - EXP" sheetId="2" r:id="rId2"/>
+    <sheet name="Fig 9 - EXP" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="38">
   <si>
     <t>Run#</t>
   </si>
@@ -115,6 +117,42 @@
   <si>
     <t>3.15ms</t>
   </si>
+  <si>
+    <t>No. Passage</t>
+  </si>
+  <si>
+    <t>Amplitude (mm)</t>
+  </si>
+  <si>
+    <t>0.78 m/s</t>
+  </si>
+  <si>
+    <t>1.29 m/s</t>
+  </si>
+  <si>
+    <t>1.55 m/s</t>
+  </si>
+  <si>
+    <t>2.08 m/s</t>
+  </si>
+  <si>
+    <t>Figure: Average Amplitude for multiple wheel passages</t>
+  </si>
+  <si>
+    <t>X (mm)</t>
+  </si>
+  <si>
+    <t>10th</t>
+  </si>
+  <si>
+    <t>20th</t>
+  </si>
+  <si>
+    <t>40th</t>
+  </si>
+  <si>
+    <t>80th</t>
+  </si>
 </sst>
 </file>
 
@@ -177,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -188,6 +226,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -245,7 +284,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-EC"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -426,7 +465,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-EC"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1483455135"/>
@@ -488,7 +527,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-EC"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1483453215"/>
@@ -536,7 +575,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-EC"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -587,7 +626,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-EC"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -768,7 +807,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-EC"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1483455135"/>
@@ -830,7 +869,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-EC"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1483453215"/>
@@ -878,7 +917,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-EC"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1644,7 +1683,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-EC"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1486832607"/>
@@ -1706,7 +1745,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-EC"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1486832127"/>
@@ -1754,7 +1793,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-EC"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1805,7 +1844,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-EC"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1980,7 +2019,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-EC"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1483455135"/>
@@ -2042,7 +2081,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-EC"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1483453215"/>
@@ -2090,7 +2129,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-EC"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2390,7 +2429,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-EC"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1483455135"/>
@@ -2452,7 +2491,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-EC"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1483453215"/>
@@ -2500,7 +2539,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-EC"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5801,24 +5840,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE48C001-E74C-4EA1-8EA7-C63DCB21B06C}">
   <dimension ref="B2:AJ52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="57" workbookViewId="0">
-      <selection activeCell="AH27" sqref="AH27"/>
+    <sheetView zoomScale="57" workbookViewId="0">
+      <selection activeCell="O43" sqref="O43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="10.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="1"/>
-    <col min="5" max="5" width="24.77734375" style="1" customWidth="1"/>
-    <col min="6" max="13" width="8.88671875" style="1"/>
+    <col min="1" max="2" width="8.86328125" style="1"/>
+    <col min="3" max="3" width="10.46484375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.86328125" style="1"/>
+    <col min="5" max="5" width="24.796875" style="1" customWidth="1"/>
+    <col min="6" max="13" width="8.86328125" style="1"/>
     <col min="14" max="14" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.88671875" style="1"/>
-    <col min="16" max="16" width="8.88671875" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.88671875" style="1"/>
+    <col min="15" max="15" width="8.86328125" style="1"/>
+    <col min="16" max="16" width="8.86328125" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.86328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B2" s="7" t="s">
         <v>16</v>
       </c>
@@ -5844,7 +5883,7 @@
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
     </row>
-    <row r="3" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -5915,7 +5954,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B4" s="2">
         <v>1</v>
       </c>
@@ -5988,7 +6027,7 @@
         <v>46.67572938</v>
       </c>
     </row>
-    <row r="5" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -6061,7 +6100,7 @@
         <v>68.357938129999994</v>
       </c>
     </row>
-    <row r="6" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -6134,7 +6173,7 @@
         <v>52.866634490000003</v>
       </c>
     </row>
-    <row r="7" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -6207,7 +6246,7 @@
         <v>31.5755327</v>
       </c>
     </row>
-    <row r="8" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B8" s="2">
         <v>5</v>
       </c>
@@ -6280,7 +6319,7 @@
         <v>55.911988819999998</v>
       </c>
     </row>
-    <row r="9" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B9" s="2">
         <v>6</v>
       </c>
@@ -6353,7 +6392,7 @@
         <v>48.95082549</v>
       </c>
     </row>
-    <row r="10" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B10" s="2">
         <v>7</v>
       </c>
@@ -6426,7 +6465,7 @@
         <v>67.902881559999997</v>
       </c>
     </row>
-    <row r="11" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B11" s="2">
         <v>8</v>
       </c>
@@ -6492,7 +6531,7 @@
         <v>9.4917254022988402</v>
       </c>
     </row>
-    <row r="12" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B12" s="2">
         <v>9</v>
       </c>
@@ -6536,7 +6575,7 @@
       <c r="U12" s="7"/>
       <c r="V12" s="7"/>
     </row>
-    <row r="13" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B13" s="2">
         <v>10</v>
       </c>
@@ -6598,7 +6637,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B14" s="2">
         <v>11</v>
       </c>
@@ -6660,7 +6699,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B15" s="2">
         <v>12</v>
       </c>
@@ -6722,7 +6761,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B16" s="2">
         <v>13</v>
       </c>
@@ -6784,7 +6823,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B17" s="2">
         <v>14</v>
       </c>
@@ -6846,7 +6885,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B18" s="2">
         <v>15</v>
       </c>
@@ -6912,7 +6951,7 @@
         <v>16.592618748826901</v>
       </c>
     </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B19" s="2">
         <v>16</v>
       </c>
@@ -6956,7 +6995,7 @@
       <c r="U19" s="7"/>
       <c r="V19" s="7"/>
     </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B20" s="2">
         <v>17</v>
       </c>
@@ -7018,7 +7057,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B21" s="2">
         <v>18</v>
       </c>
@@ -7080,7 +7119,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B22" s="2">
         <v>19</v>
       </c>
@@ -7142,7 +7181,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B23" s="2">
         <v>16</v>
       </c>
@@ -7204,7 +7243,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B24" s="2">
         <v>17</v>
       </c>
@@ -7270,7 +7309,7 @@
         <v>180.457636195464</v>
       </c>
     </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B25" s="2">
         <v>18</v>
       </c>
@@ -7314,7 +7353,7 @@
       <c r="U25" s="7"/>
       <c r="V25" s="7"/>
     </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B26" s="2">
         <v>19</v>
       </c>
@@ -7376,7 +7415,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B27" s="2">
         <v>20</v>
       </c>
@@ -7438,7 +7477,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B28" s="2">
         <v>21</v>
       </c>
@@ -7500,7 +7539,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B29" s="2">
         <v>22</v>
       </c>
@@ -7562,7 +7601,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B30" s="2">
         <v>23</v>
       </c>
@@ -7624,7 +7663,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B31" s="2">
         <v>24</v>
       </c>
@@ -7686,7 +7725,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B32" s="2">
         <v>25</v>
       </c>
@@ -7752,7 +7791,7 @@
         <v>94.108597633435593</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B33" s="2">
         <v>26</v>
       </c>
@@ -7796,7 +7835,7 @@
       <c r="U33" s="7"/>
       <c r="V33" s="7"/>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B34" s="2">
         <v>27</v>
       </c>
@@ -7858,7 +7897,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B35" s="2">
         <v>28</v>
       </c>
@@ -7920,7 +7959,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B36" s="2">
         <v>29</v>
       </c>
@@ -7982,7 +8021,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B37" s="2">
         <v>30</v>
       </c>
@@ -8044,7 +8083,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B38" s="2">
         <v>31</v>
       </c>
@@ -8106,7 +8145,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B39" s="2">
         <v>32</v>
       </c>
@@ -8172,7 +8211,7 @@
         <v>130.930666474399</v>
       </c>
     </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B40" s="2">
         <v>33</v>
       </c>
@@ -8216,7 +8255,7 @@
       <c r="U40" s="7"/>
       <c r="V40" s="7"/>
     </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B41" s="2">
         <v>34</v>
       </c>
@@ -8278,7 +8317,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.45">
       <c r="M42" s="2">
         <v>4</v>
       </c>
@@ -8310,7 +8349,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.45">
       <c r="M43" s="2">
         <v>11</v>
       </c>
@@ -8342,7 +8381,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.45">
       <c r="M44" s="2">
         <v>18</v>
       </c>
@@ -8374,7 +8413,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.45">
       <c r="M45" s="4">
         <v>21</v>
       </c>
@@ -8406,7 +8445,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.45">
       <c r="M46" s="2">
         <v>25</v>
       </c>
@@ -8438,7 +8477,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.45">
       <c r="M47" s="2">
         <v>33</v>
       </c>
@@ -8474,7 +8513,7 @@
         <v>142.08560962820999</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.45">
       <c r="M48" s="7" t="s">
         <v>25</v>
       </c>
@@ -8488,7 +8527,7 @@
       <c r="U48" s="7"/>
       <c r="V48" s="7"/>
     </row>
-    <row r="49" spans="13:23" x14ac:dyDescent="0.3">
+    <row r="49" spans="13:23" x14ac:dyDescent="0.45">
       <c r="M49" s="2" t="s">
         <v>0</v>
       </c>
@@ -8520,7 +8559,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="13:23" x14ac:dyDescent="0.3">
+    <row r="50" spans="13:23" x14ac:dyDescent="0.45">
       <c r="M50" s="2">
         <v>19</v>
       </c>
@@ -8552,7 +8591,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="13:23" x14ac:dyDescent="0.3">
+    <row r="51" spans="13:23" x14ac:dyDescent="0.45">
       <c r="M51" s="4">
         <v>22</v>
       </c>
@@ -8584,7 +8623,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="13:23" x14ac:dyDescent="0.3">
+    <row r="52" spans="13:23" x14ac:dyDescent="0.45">
       <c r="M52" s="2">
         <v>26</v>
       </c>
@@ -8635,4 +8674,2254 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AA140B2-F025-45C4-A0AC-8D70218E33B1}">
+  <dimension ref="B2:K153"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="9.06640625" style="1"/>
+    <col min="2" max="2" width="10.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.06640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="7"/>
+      <c r="K2" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8">
+        <v>1.1124912199999999</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <v>2.0558586399999998</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1.1075818500000001</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="8">
+        <v>2.4736851999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="8">
+        <v>1.10521387</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="8">
+        <v>2.6882255599999998</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" s="8">
+        <v>1.10355458</v>
+      </c>
+      <c r="D7" s="1">
+        <v>4</v>
+      </c>
+      <c r="E7" s="8">
+        <v>2.9276905100000001</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B8" s="1">
+        <v>5</v>
+      </c>
+      <c r="C8" s="8">
+        <v>1.1016682799999999</v>
+      </c>
+      <c r="D8" s="1">
+        <v>5</v>
+      </c>
+      <c r="E8" s="8">
+        <v>3.3508890400000002</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B9" s="1">
+        <v>6</v>
+      </c>
+      <c r="C9" s="8">
+        <v>1.09986278</v>
+      </c>
+      <c r="D9" s="1">
+        <v>6</v>
+      </c>
+      <c r="E9" s="8">
+        <v>3.64841332</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B10" s="1">
+        <v>7</v>
+      </c>
+      <c r="C10" s="8">
+        <v>1.0988544099999999</v>
+      </c>
+      <c r="D10" s="1">
+        <v>7</v>
+      </c>
+      <c r="E10" s="8">
+        <v>4.1489205499999997</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B11" s="1">
+        <v>8</v>
+      </c>
+      <c r="C11" s="8">
+        <v>1.0978947699999999</v>
+      </c>
+      <c r="D11" s="1">
+        <v>8</v>
+      </c>
+      <c r="E11" s="8">
+        <v>4.2763419300000001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B12" s="1">
+        <v>9</v>
+      </c>
+      <c r="C12" s="8">
+        <v>1.0969383699999999</v>
+      </c>
+      <c r="D12" s="1">
+        <v>9</v>
+      </c>
+      <c r="E12" s="8">
+        <v>4.8038751700000004</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B13" s="1">
+        <v>10</v>
+      </c>
+      <c r="C13" s="8">
+        <v>1.09598701</v>
+      </c>
+      <c r="D13" s="1">
+        <v>10</v>
+      </c>
+      <c r="E13" s="8">
+        <v>5.1558015099999999</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B14" s="1">
+        <v>11</v>
+      </c>
+      <c r="C14" s="8">
+        <v>1.0950390400000001</v>
+      </c>
+      <c r="D14" s="1">
+        <v>11</v>
+      </c>
+      <c r="E14" s="8">
+        <v>5.2572053199999997</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B15" s="1">
+        <v>12</v>
+      </c>
+      <c r="C15" s="8">
+        <v>1.0940948699999999</v>
+      </c>
+      <c r="D15" s="1">
+        <v>12</v>
+      </c>
+      <c r="E15" s="8">
+        <v>5.5498463600000001</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B16" s="1">
+        <v>13</v>
+      </c>
+      <c r="C16" s="8">
+        <v>1.0931541899999999</v>
+      </c>
+      <c r="D16" s="1">
+        <v>13</v>
+      </c>
+      <c r="E16" s="8">
+        <v>5.7763345800000003</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B17" s="1">
+        <v>14</v>
+      </c>
+      <c r="C17" s="8">
+        <v>1.09221532</v>
+      </c>
+      <c r="D17" s="1">
+        <v>14</v>
+      </c>
+      <c r="E17" s="8">
+        <v>6.3165779200000003</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B18" s="1">
+        <v>15</v>
+      </c>
+      <c r="C18" s="8">
+        <v>1.0912794400000001</v>
+      </c>
+      <c r="D18" s="1">
+        <v>15</v>
+      </c>
+      <c r="E18" s="8">
+        <v>6.1455522900000004</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B19" s="1">
+        <v>16</v>
+      </c>
+      <c r="C19" s="8">
+        <v>1.09034634</v>
+      </c>
+      <c r="D19" s="1">
+        <v>16</v>
+      </c>
+      <c r="E19" s="8">
+        <v>7.1782910500000003</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B20" s="1">
+        <v>17</v>
+      </c>
+      <c r="C20" s="8">
+        <v>1.08941618</v>
+      </c>
+      <c r="D20" s="1">
+        <v>17</v>
+      </c>
+      <c r="E20" s="8">
+        <v>7.2070081200000002</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B21" s="1">
+        <v>18</v>
+      </c>
+      <c r="C21" s="8">
+        <v>1.1280877899999999</v>
+      </c>
+      <c r="D21" s="1">
+        <v>18</v>
+      </c>
+      <c r="E21" s="8">
+        <v>6.9336525900000003</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B22" s="1">
+        <v>19</v>
+      </c>
+      <c r="C22" s="8">
+        <v>1.1271343700000001</v>
+      </c>
+      <c r="D22" s="1">
+        <v>19</v>
+      </c>
+      <c r="E22" s="8">
+        <v>7.0667322099999996</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B23" s="1">
+        <v>20</v>
+      </c>
+      <c r="C23" s="8">
+        <v>1.1261838500000001</v>
+      </c>
+      <c r="D23" s="1">
+        <v>20</v>
+      </c>
+      <c r="E23" s="8">
+        <v>6.9947279</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B24" s="1">
+        <v>21</v>
+      </c>
+      <c r="C24" s="8">
+        <v>1.12523949</v>
+      </c>
+      <c r="D24" s="1">
+        <v>21</v>
+      </c>
+      <c r="E24" s="8">
+        <v>7.6781818099999999</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B25" s="1">
+        <v>22</v>
+      </c>
+      <c r="C25" s="8">
+        <v>1.1242968099999999</v>
+      </c>
+      <c r="D25" s="1">
+        <v>22</v>
+      </c>
+      <c r="E25" s="8">
+        <v>8.4205248499999996</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B26" s="1">
+        <v>23</v>
+      </c>
+      <c r="C26" s="8">
+        <v>1.12335585</v>
+      </c>
+      <c r="D26" s="1">
+        <v>23</v>
+      </c>
+      <c r="E26" s="8">
+        <v>8.2908619899999998</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B27" s="1">
+        <v>24</v>
+      </c>
+      <c r="C27" s="8">
+        <v>1.1224166</v>
+      </c>
+      <c r="D27" s="1">
+        <v>24</v>
+      </c>
+      <c r="E27" s="8">
+        <v>8.7459842200000004</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B28" s="1">
+        <v>25</v>
+      </c>
+      <c r="C28" s="8">
+        <v>1.1214790699999999</v>
+      </c>
+      <c r="D28" s="1">
+        <v>25</v>
+      </c>
+      <c r="E28" s="8">
+        <v>9.1037163200000002</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B29" s="1">
+        <v>26</v>
+      </c>
+      <c r="C29" s="8">
+        <v>1.12054327</v>
+      </c>
+      <c r="D29" s="1">
+        <v>26</v>
+      </c>
+      <c r="E29" s="8">
+        <v>9.3375457300000004</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B30" s="1">
+        <v>27</v>
+      </c>
+      <c r="C30" s="8">
+        <v>1.1196092099999999</v>
+      </c>
+      <c r="D30" s="1">
+        <v>27</v>
+      </c>
+      <c r="E30" s="8">
+        <v>8.9747491099999994</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B31" s="1">
+        <v>28</v>
+      </c>
+      <c r="C31" s="8">
+        <v>1.1186768899999999</v>
+      </c>
+      <c r="D31" s="1">
+        <v>28</v>
+      </c>
+      <c r="E31" s="8">
+        <v>9.8490036399999994</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B32" s="1">
+        <v>29</v>
+      </c>
+      <c r="C32" s="8">
+        <v>1.11774631</v>
+      </c>
+      <c r="D32" s="1">
+        <v>29</v>
+      </c>
+      <c r="E32" s="8">
+        <v>10.03919675</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B33" s="1">
+        <v>30</v>
+      </c>
+      <c r="C33" s="8">
+        <v>1.1168174799999999</v>
+      </c>
+      <c r="D33" s="1">
+        <v>30</v>
+      </c>
+      <c r="E33" s="8">
+        <v>9.7859680600000001</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B34" s="1">
+        <v>31</v>
+      </c>
+      <c r="C34" s="8">
+        <v>1.1158904000000001</v>
+      </c>
+      <c r="D34" s="1">
+        <v>31</v>
+      </c>
+      <c r="E34" s="8">
+        <v>10.31011882</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B35" s="1">
+        <v>32</v>
+      </c>
+      <c r="C35" s="8">
+        <v>1.11496547</v>
+      </c>
+      <c r="D35" s="1">
+        <v>32</v>
+      </c>
+      <c r="E35" s="8">
+        <v>10.7881445</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B36" s="1">
+        <v>33</v>
+      </c>
+      <c r="C36" s="8">
+        <v>1.1140447600000001</v>
+      </c>
+      <c r="D36" s="1">
+        <v>33</v>
+      </c>
+      <c r="E36" s="8">
+        <v>10.83855584</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B37" s="1">
+        <v>34</v>
+      </c>
+      <c r="C37" s="8">
+        <v>1.11312864</v>
+      </c>
+      <c r="D37" s="1">
+        <v>34</v>
+      </c>
+      <c r="E37" s="8">
+        <v>11.51404438</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B38" s="1">
+        <v>35</v>
+      </c>
+      <c r="C38" s="8">
+        <v>1.1201363600000001</v>
+      </c>
+      <c r="D38" s="1">
+        <v>35</v>
+      </c>
+      <c r="E38" s="8">
+        <v>11.581563790000001</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B39" s="1">
+        <v>36</v>
+      </c>
+      <c r="C39" s="8">
+        <v>1.1192346399999999</v>
+      </c>
+      <c r="D39" s="1">
+        <v>36</v>
+      </c>
+      <c r="E39" s="8">
+        <v>11.63550034</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B40" s="1">
+        <v>37</v>
+      </c>
+      <c r="C40" s="8">
+        <v>1.1183352900000001</v>
+      </c>
+      <c r="D40" s="1">
+        <v>37</v>
+      </c>
+      <c r="E40" s="8">
+        <v>11.817671450000001</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B41" s="1">
+        <v>38</v>
+      </c>
+      <c r="C41" s="8">
+        <v>1.11743854</v>
+      </c>
+      <c r="D41" s="1">
+        <v>38</v>
+      </c>
+      <c r="E41" s="8">
+        <v>12.08979244</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B42" s="1">
+        <v>39</v>
+      </c>
+      <c r="C42" s="8">
+        <v>1.11654359</v>
+      </c>
+      <c r="D42" s="1">
+        <v>39</v>
+      </c>
+      <c r="E42" s="8">
+        <v>12.31496009</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B43" s="1">
+        <v>40</v>
+      </c>
+      <c r="C43" s="8">
+        <v>1.1156505000000001</v>
+      </c>
+      <c r="D43" s="1">
+        <v>40</v>
+      </c>
+      <c r="E43" s="8">
+        <v>12.505495979999999</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B44" s="1">
+        <v>41</v>
+      </c>
+      <c r="C44" s="8">
+        <v>1.1147590599999999</v>
+      </c>
+      <c r="D44" s="1">
+        <v>41</v>
+      </c>
+      <c r="E44" s="8">
+        <v>12.71286085</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B45" s="1">
+        <v>42</v>
+      </c>
+      <c r="C45" s="8">
+        <v>1.1138692800000001</v>
+      </c>
+      <c r="D45" s="1">
+        <v>42</v>
+      </c>
+      <c r="E45" s="8">
+        <v>12.838149420000001</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B46" s="1">
+        <v>43</v>
+      </c>
+      <c r="C46" s="8">
+        <v>1.1129811599999999</v>
+      </c>
+      <c r="D46" s="1">
+        <v>43</v>
+      </c>
+      <c r="E46" s="8">
+        <v>12.98728316</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B47" s="1">
+        <v>44</v>
+      </c>
+      <c r="C47" s="8">
+        <v>1.1120949600000001</v>
+      </c>
+      <c r="D47" s="1">
+        <v>44</v>
+      </c>
+      <c r="E47" s="8">
+        <v>13.106201049999999</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B48" s="1">
+        <v>45</v>
+      </c>
+      <c r="C48" s="8">
+        <v>1.1112123</v>
+      </c>
+      <c r="D48" s="1">
+        <v>45</v>
+      </c>
+      <c r="E48" s="8">
+        <v>13.28342453</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B49" s="1">
+        <v>46</v>
+      </c>
+      <c r="C49" s="8">
+        <v>1.1103314900000001</v>
+      </c>
+      <c r="D49" s="1">
+        <v>46</v>
+      </c>
+      <c r="E49" s="8">
+        <v>13.45181943</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B50" s="1">
+        <v>47</v>
+      </c>
+      <c r="C50" s="8">
+        <v>1.10945231</v>
+      </c>
+      <c r="D50" s="1">
+        <v>47</v>
+      </c>
+      <c r="E50" s="8">
+        <v>12.94278694</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B51" s="1">
+        <v>48</v>
+      </c>
+      <c r="C51" s="8">
+        <v>1.1085747800000001</v>
+      </c>
+      <c r="D51" s="1">
+        <v>48</v>
+      </c>
+      <c r="E51" s="8">
+        <v>13.146840259999999</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B52" s="1">
+        <v>49</v>
+      </c>
+      <c r="C52" s="8">
+        <v>1.10769981</v>
+      </c>
+      <c r="D52" s="1">
+        <v>49</v>
+      </c>
+      <c r="E52" s="8">
+        <v>13.91342043</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B53" s="1">
+        <v>50</v>
+      </c>
+      <c r="C53" s="8">
+        <v>1.1068264800000001</v>
+      </c>
+      <c r="D53" s="1">
+        <v>50</v>
+      </c>
+      <c r="E53" s="8">
+        <v>14.09147739</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B54" s="1">
+        <v>51</v>
+      </c>
+      <c r="C54" s="8">
+        <v>1.10595548</v>
+      </c>
+      <c r="D54" s="1">
+        <v>51</v>
+      </c>
+      <c r="E54" s="8">
+        <v>13.556599909999999</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B55" s="1">
+        <v>52</v>
+      </c>
+      <c r="C55" s="8">
+        <v>1.10508714</v>
+      </c>
+      <c r="D55" s="1">
+        <v>52</v>
+      </c>
+      <c r="E55" s="8">
+        <v>14.385121720000001</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B56" s="1">
+        <v>53</v>
+      </c>
+      <c r="C56" s="8">
+        <v>1.1042212</v>
+      </c>
+      <c r="D56" s="1">
+        <v>53</v>
+      </c>
+      <c r="E56" s="8">
+        <v>14.649736130000001</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B57" s="1">
+        <v>54</v>
+      </c>
+      <c r="C57" s="8">
+        <v>1.10335742</v>
+      </c>
+      <c r="D57" s="1">
+        <v>54</v>
+      </c>
+      <c r="E57" s="8">
+        <v>14.87404843</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B58" s="1">
+        <v>55</v>
+      </c>
+      <c r="C58" s="8">
+        <v>1.1024963400000001</v>
+      </c>
+      <c r="D58" s="1">
+        <v>55</v>
+      </c>
+      <c r="E58" s="8">
+        <v>15.387338290000001</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B59" s="1">
+        <v>56</v>
+      </c>
+      <c r="C59" s="8">
+        <v>1.10164222</v>
+      </c>
+      <c r="D59" s="1">
+        <v>56</v>
+      </c>
+      <c r="E59" s="8">
+        <v>15.62943413</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B60" s="1">
+        <v>57</v>
+      </c>
+      <c r="C60" s="8">
+        <v>1.1007923900000001</v>
+      </c>
+      <c r="D60" s="1">
+        <v>57</v>
+      </c>
+      <c r="E60" s="8">
+        <v>15.81762777</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B61" s="1">
+        <v>58</v>
+      </c>
+      <c r="C61" s="8">
+        <v>1.09994411</v>
+      </c>
+      <c r="D61" s="1">
+        <v>58</v>
+      </c>
+      <c r="E61" s="8">
+        <v>15.8267486</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B62" s="1">
+        <v>59</v>
+      </c>
+      <c r="C62" s="8">
+        <v>1.0990974</v>
+      </c>
+      <c r="D62" s="1">
+        <v>59</v>
+      </c>
+      <c r="E62" s="8">
+        <v>16.105976330000001</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B63" s="1">
+        <v>60</v>
+      </c>
+      <c r="C63" s="8">
+        <v>1.0982532899999999</v>
+      </c>
+      <c r="D63" s="1">
+        <v>60</v>
+      </c>
+      <c r="E63" s="8">
+        <v>16.361634200000001</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B64" s="1">
+        <v>61</v>
+      </c>
+      <c r="C64" s="8">
+        <v>1.0974118100000001</v>
+      </c>
+      <c r="D64" s="1">
+        <v>61</v>
+      </c>
+      <c r="E64" s="8">
+        <v>16.623661200000001</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B65" s="1">
+        <v>62</v>
+      </c>
+      <c r="C65" s="8">
+        <v>1.09657296</v>
+      </c>
+      <c r="D65" s="1">
+        <v>62</v>
+      </c>
+      <c r="E65" s="8">
+        <v>16.802911040000001</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B66" s="1">
+        <v>63</v>
+      </c>
+      <c r="C66" s="8">
+        <v>1.0957360700000001</v>
+      </c>
+      <c r="D66" s="1">
+        <v>63</v>
+      </c>
+      <c r="E66" s="8">
+        <v>16.189509279999999</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B67" s="1">
+        <v>64</v>
+      </c>
+      <c r="C67" s="8">
+        <v>1.0949007100000001</v>
+      </c>
+      <c r="D67" s="1">
+        <v>64</v>
+      </c>
+      <c r="E67" s="8">
+        <v>16.483726069999999</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B68" s="1">
+        <v>65</v>
+      </c>
+      <c r="C68" s="8">
+        <v>1.09406687</v>
+      </c>
+      <c r="D68" s="1">
+        <v>65</v>
+      </c>
+      <c r="E68" s="8">
+        <v>17.839082560000001</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B69" s="1">
+        <v>66</v>
+      </c>
+      <c r="C69" s="8">
+        <v>1.09323456</v>
+      </c>
+      <c r="D69" s="1">
+        <v>66</v>
+      </c>
+      <c r="E69" s="8">
+        <v>16.781854899999999</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B70" s="1">
+        <v>67</v>
+      </c>
+      <c r="C70" s="8">
+        <v>1.0924037600000001</v>
+      </c>
+      <c r="D70" s="1">
+        <v>67</v>
+      </c>
+      <c r="E70" s="8">
+        <v>16.916199590000002</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B71" s="1">
+        <v>68</v>
+      </c>
+      <c r="C71" s="8">
+        <v>1.0915754200000001</v>
+      </c>
+      <c r="D71" s="1">
+        <v>68</v>
+      </c>
+      <c r="E71" s="8">
+        <v>17.418974519999999</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B72" s="1">
+        <v>69</v>
+      </c>
+      <c r="C72" s="8">
+        <v>1.0907488599999999</v>
+      </c>
+      <c r="D72" s="1">
+        <v>69</v>
+      </c>
+      <c r="E72" s="8">
+        <v>18.424838690000001</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B73" s="1">
+        <v>70</v>
+      </c>
+      <c r="C73" s="8">
+        <v>1.0899238</v>
+      </c>
+      <c r="D73" s="1">
+        <v>70</v>
+      </c>
+      <c r="E73" s="8">
+        <v>18.556429319999999</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B74" s="1">
+        <v>71</v>
+      </c>
+      <c r="C74" s="8">
+        <v>1.08910025</v>
+      </c>
+      <c r="D74" s="1">
+        <v>71</v>
+      </c>
+      <c r="E74" s="8">
+        <v>17.939447399999999</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B75" s="1">
+        <v>72</v>
+      </c>
+      <c r="C75" s="8">
+        <v>1.08827819</v>
+      </c>
+      <c r="D75" s="1">
+        <v>72</v>
+      </c>
+      <c r="E75" s="8">
+        <v>17.723138720000001</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B76" s="1">
+        <v>73</v>
+      </c>
+      <c r="C76" s="8">
+        <v>1.0874576199999999</v>
+      </c>
+      <c r="D76" s="1">
+        <v>73</v>
+      </c>
+      <c r="E76" s="8">
+        <v>17.826135270000002</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B77" s="1">
+        <v>74</v>
+      </c>
+      <c r="C77" s="8">
+        <v>1.08663855</v>
+      </c>
+      <c r="D77" s="1">
+        <v>74</v>
+      </c>
+      <c r="E77" s="8">
+        <v>19.04344545</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B78" s="1">
+        <v>75</v>
+      </c>
+      <c r="C78" s="8">
+        <v>1.0858209599999999</v>
+      </c>
+      <c r="D78" s="1">
+        <v>75</v>
+      </c>
+      <c r="E78" s="8">
+        <v>19.200594970000001</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B79" s="1">
+        <v>76</v>
+      </c>
+      <c r="C79" s="8">
+        <v>1.08500486</v>
+      </c>
+      <c r="D79" s="1">
+        <v>76</v>
+      </c>
+      <c r="E79" s="8">
+        <v>19.671289139999999</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B80" s="1">
+        <v>77</v>
+      </c>
+      <c r="C80" s="8">
+        <v>1.08419117</v>
+      </c>
+      <c r="D80" s="1">
+        <v>77</v>
+      </c>
+      <c r="E80" s="8">
+        <v>19.935779849999999</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B81" s="1">
+        <v>78</v>
+      </c>
+      <c r="C81" s="8">
+        <v>1.08338183</v>
+      </c>
+      <c r="D81" s="1">
+        <v>78</v>
+      </c>
+      <c r="E81" s="8">
+        <v>20.077943950000002</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B82" s="1">
+        <v>79</v>
+      </c>
+      <c r="C82" s="8">
+        <v>1.0825745600000001</v>
+      </c>
+      <c r="D82" s="1">
+        <v>79</v>
+      </c>
+      <c r="E82" s="8">
+        <v>20.244381319999999</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B83" s="1">
+        <v>80</v>
+      </c>
+      <c r="C83" s="8">
+        <v>1.0817687300000001</v>
+      </c>
+      <c r="D83" s="1">
+        <v>80</v>
+      </c>
+      <c r="E83" s="8">
+        <v>20.37047535</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B84" s="1">
+        <v>81</v>
+      </c>
+      <c r="C84" s="8">
+        <v>1.08096518</v>
+      </c>
+      <c r="D84" s="1">
+        <v>81</v>
+      </c>
+      <c r="E84" s="8">
+        <v>20.396526139999999</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B85" s="1">
+        <v>82</v>
+      </c>
+      <c r="C85" s="8">
+        <v>1.0801630600000001</v>
+      </c>
+      <c r="D85" s="1">
+        <v>82</v>
+      </c>
+      <c r="E85" s="8">
+        <v>20.195746270000001</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B86" s="1">
+        <v>83</v>
+      </c>
+      <c r="C86" s="8">
+        <v>1.0793625499999999</v>
+      </c>
+      <c r="D86" s="1">
+        <v>83</v>
+      </c>
+      <c r="E86" s="8">
+        <v>20.27727557</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B87" s="1">
+        <v>84</v>
+      </c>
+      <c r="C87" s="8">
+        <v>1.0785649799999999</v>
+      </c>
+      <c r="D87" s="1">
+        <v>84</v>
+      </c>
+      <c r="E87" s="8">
+        <v>20.37455138</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B88" s="1">
+        <v>85</v>
+      </c>
+      <c r="C88" s="8">
+        <v>1.0777696299999999</v>
+      </c>
+      <c r="D88" s="1">
+        <v>85</v>
+      </c>
+      <c r="E88" s="8">
+        <v>20.473349779999999</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B89" s="1">
+        <v>86</v>
+      </c>
+      <c r="C89" s="8">
+        <v>1.07697647</v>
+      </c>
+      <c r="D89" s="1">
+        <v>86</v>
+      </c>
+      <c r="E89" s="8">
+        <v>20.588781390000001</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B90" s="1">
+        <v>87</v>
+      </c>
+      <c r="C90" s="8">
+        <v>1.07618513</v>
+      </c>
+      <c r="D90" s="1">
+        <v>87</v>
+      </c>
+      <c r="E90" s="8">
+        <v>20.63385457</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B91" s="1">
+        <v>88</v>
+      </c>
+      <c r="C91" s="8">
+        <v>1.0753952</v>
+      </c>
+      <c r="D91" s="1">
+        <v>88</v>
+      </c>
+      <c r="E91" s="8">
+        <v>20.87735443</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B92" s="1">
+        <v>89</v>
+      </c>
+      <c r="C92" s="8">
+        <v>1.0746066700000001</v>
+      </c>
+      <c r="D92" s="1">
+        <v>89</v>
+      </c>
+      <c r="E92" s="8">
+        <v>20.647123499999999</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B93" s="1">
+        <v>90</v>
+      </c>
+      <c r="C93" s="8">
+        <v>1.0738200499999999</v>
+      </c>
+      <c r="D93" s="1">
+        <v>90</v>
+      </c>
+      <c r="E93" s="8">
+        <v>20.682616960000001</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B94" s="1">
+        <v>91</v>
+      </c>
+      <c r="C94" s="8">
+        <v>1.0730386700000001</v>
+      </c>
+      <c r="D94" s="1">
+        <v>91</v>
+      </c>
+      <c r="E94" s="8">
+        <v>20.917349380000001</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B95" s="1">
+        <v>92</v>
+      </c>
+      <c r="C95" s="8">
+        <v>1.0722588099999999</v>
+      </c>
+      <c r="D95" s="1">
+        <v>92</v>
+      </c>
+      <c r="E95" s="8">
+        <v>20.950249849999999</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B96" s="1">
+        <v>93</v>
+      </c>
+      <c r="C96" s="8">
+        <v>1.07148032</v>
+      </c>
+      <c r="D96" s="1">
+        <v>93</v>
+      </c>
+      <c r="E96" s="8">
+        <v>20.80356991</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B97" s="1">
+        <v>94</v>
+      </c>
+      <c r="C97" s="8">
+        <v>1.07070417</v>
+      </c>
+      <c r="D97" s="1">
+        <v>94</v>
+      </c>
+      <c r="E97" s="8">
+        <v>20.896043679999998</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B98" s="1">
+        <v>95</v>
+      </c>
+      <c r="C98" s="8">
+        <v>1.0699299600000001</v>
+      </c>
+      <c r="D98" s="1">
+        <v>95</v>
+      </c>
+      <c r="E98" s="8">
+        <v>20.994986319999999</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B99" s="1">
+        <v>96</v>
+      </c>
+      <c r="C99" s="8">
+        <v>1.0691571200000001</v>
+      </c>
+      <c r="D99" s="1">
+        <v>96</v>
+      </c>
+      <c r="E99" s="8">
+        <v>21.266776719999999</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B100" s="1">
+        <v>97</v>
+      </c>
+      <c r="C100" s="8">
+        <v>1.0683856300000001</v>
+      </c>
+      <c r="D100" s="1">
+        <v>97</v>
+      </c>
+      <c r="E100" s="8">
+        <v>19.755652390000002</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B101" s="1">
+        <v>98</v>
+      </c>
+      <c r="C101" s="8">
+        <v>1.0676154899999999</v>
+      </c>
+      <c r="D101" s="1">
+        <v>98</v>
+      </c>
+      <c r="E101" s="8">
+        <v>21.053493410000002</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B102" s="1">
+        <v>99</v>
+      </c>
+      <c r="C102" s="8">
+        <v>1.06684844</v>
+      </c>
+      <c r="D102" s="1">
+        <v>99</v>
+      </c>
+      <c r="E102" s="8">
+        <v>21.17643824</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B103" s="1">
+        <v>100</v>
+      </c>
+      <c r="C103" s="8">
+        <v>1.06608389</v>
+      </c>
+      <c r="D103" s="1">
+        <v>100</v>
+      </c>
+      <c r="E103" s="8">
+        <v>21.111106549999999</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B104" s="1">
+        <v>101</v>
+      </c>
+      <c r="C104" s="8">
+        <v>1.06532066</v>
+      </c>
+      <c r="D104" s="1">
+        <v>101</v>
+      </c>
+      <c r="E104" s="8">
+        <v>21.429461029999999</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B105" s="1">
+        <v>102</v>
+      </c>
+      <c r="C105" s="8">
+        <v>1.0645587599999999</v>
+      </c>
+      <c r="D105" s="1">
+        <v>102</v>
+      </c>
+      <c r="E105" s="8">
+        <v>21.528224030000001</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B106" s="1">
+        <v>103</v>
+      </c>
+      <c r="C106" s="8">
+        <v>1.06379818</v>
+      </c>
+      <c r="D106" s="1">
+        <v>103</v>
+      </c>
+      <c r="E106" s="8">
+        <v>21.379007290000001</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B107" s="1">
+        <v>104</v>
+      </c>
+      <c r="C107" s="8">
+        <v>1.06303956</v>
+      </c>
+      <c r="D107" s="1">
+        <v>104</v>
+      </c>
+      <c r="E107" s="8">
+        <v>21.79841841</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B108" s="1">
+        <v>105</v>
+      </c>
+      <c r="C108" s="8">
+        <v>1.06228273</v>
+      </c>
+      <c r="D108" s="1">
+        <v>105</v>
+      </c>
+      <c r="E108" s="8">
+        <v>21.615852279999999</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B109" s="1">
+        <v>106</v>
+      </c>
+      <c r="C109" s="8">
+        <v>1.06152772</v>
+      </c>
+      <c r="D109" s="1">
+        <v>106</v>
+      </c>
+      <c r="E109" s="8">
+        <v>21.580365369999999</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B110" s="1">
+        <v>107</v>
+      </c>
+      <c r="C110" s="8">
+        <v>1.06077402</v>
+      </c>
+      <c r="D110" s="1">
+        <v>107</v>
+      </c>
+      <c r="E110" s="8">
+        <v>21.709089880000001</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B111" s="1">
+        <v>108</v>
+      </c>
+      <c r="C111" s="8">
+        <v>1.0600216099999999</v>
+      </c>
+      <c r="D111" s="1">
+        <v>108</v>
+      </c>
+      <c r="E111" s="8">
+        <v>21.931907379999998</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B112" s="1">
+        <v>109</v>
+      </c>
+      <c r="C112" s="8">
+        <v>1.0592705</v>
+      </c>
+      <c r="D112" s="1">
+        <v>109</v>
+      </c>
+      <c r="E112" s="8">
+        <v>21.835051050000001</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B113" s="1">
+        <v>110</v>
+      </c>
+      <c r="C113" s="8">
+        <v>1.0585207999999999</v>
+      </c>
+      <c r="D113" s="1">
+        <v>110</v>
+      </c>
+      <c r="E113" s="8">
+        <v>21.785104480000001</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B114" s="1">
+        <v>111</v>
+      </c>
+      <c r="C114" s="8">
+        <v>1.05777389</v>
+      </c>
+      <c r="D114" s="1">
+        <v>111</v>
+      </c>
+      <c r="E114" s="8">
+        <v>21.97349934</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B115" s="1">
+        <v>112</v>
+      </c>
+      <c r="C115" s="8">
+        <v>1.0570282600000001</v>
+      </c>
+      <c r="D115" s="1">
+        <v>112</v>
+      </c>
+      <c r="E115" s="8">
+        <v>21.120580969999999</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B116" s="1">
+        <v>113</v>
+      </c>
+      <c r="C116" s="8">
+        <v>1.0562838999999999</v>
+      </c>
+      <c r="D116" s="1">
+        <v>113</v>
+      </c>
+      <c r="E116" s="8">
+        <v>21.847902359999999</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B117" s="1">
+        <v>114</v>
+      </c>
+      <c r="C117" s="8">
+        <v>1.0555423799999999</v>
+      </c>
+      <c r="D117" s="1">
+        <v>114</v>
+      </c>
+      <c r="E117" s="8">
+        <v>21.93493513</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B118" s="1">
+        <v>115</v>
+      </c>
+      <c r="C118" s="8">
+        <v>1.05480233</v>
+      </c>
+      <c r="D118" s="1">
+        <v>115</v>
+      </c>
+      <c r="E118" s="8">
+        <v>21.961603740000001</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B119" s="1">
+        <v>116</v>
+      </c>
+      <c r="C119" s="8">
+        <v>1.0540635199999999</v>
+      </c>
+      <c r="D119" s="1">
+        <v>116</v>
+      </c>
+      <c r="E119" s="8">
+        <v>20.65474991</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B120" s="1">
+        <v>117</v>
+      </c>
+      <c r="C120" s="8">
+        <v>1.0533259800000001</v>
+      </c>
+      <c r="D120" s="1">
+        <v>117</v>
+      </c>
+      <c r="E120" s="8">
+        <v>22.017544300000001</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B121" s="1">
+        <v>118</v>
+      </c>
+      <c r="C121" s="8">
+        <v>1.0525896800000001</v>
+      </c>
+      <c r="D121" s="1">
+        <v>118</v>
+      </c>
+      <c r="E121" s="8">
+        <v>21.63197113</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B122" s="1">
+        <v>119</v>
+      </c>
+      <c r="C122" s="8">
+        <v>1.05185511</v>
+      </c>
+      <c r="D122" s="1">
+        <v>119</v>
+      </c>
+      <c r="E122" s="8">
+        <v>21.650861760000002</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B123" s="1">
+        <v>120</v>
+      </c>
+      <c r="C123" s="8">
+        <v>1.0511234199999999</v>
+      </c>
+      <c r="D123" s="1">
+        <v>120</v>
+      </c>
+      <c r="E123" s="8">
+        <v>21.699869289999999</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B124" s="1">
+        <v>121</v>
+      </c>
+      <c r="C124" s="8">
+        <v>1.0503929599999999</v>
+      </c>
+      <c r="D124" s="1">
+        <v>121</v>
+      </c>
+      <c r="E124" s="8">
+        <v>21.805416789999999</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B125" s="1">
+        <v>122</v>
+      </c>
+      <c r="C125" s="8">
+        <v>1.0496640500000001</v>
+      </c>
+      <c r="D125" s="1">
+        <v>122</v>
+      </c>
+      <c r="E125" s="8">
+        <v>21.836896200000002</v>
+      </c>
+    </row>
+    <row r="126" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B126" s="1">
+        <v>123</v>
+      </c>
+      <c r="C126" s="8">
+        <v>1.0783368</v>
+      </c>
+      <c r="D126" s="1">
+        <v>123</v>
+      </c>
+      <c r="E126" s="8">
+        <v>21.87697344</v>
+      </c>
+    </row>
+    <row r="127" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B127" s="1">
+        <v>124</v>
+      </c>
+      <c r="C127" s="8">
+        <v>1.07762548</v>
+      </c>
+      <c r="D127" s="1">
+        <v>124</v>
+      </c>
+      <c r="E127" s="8">
+        <v>21.934882330000001</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B128" s="1">
+        <v>125</v>
+      </c>
+      <c r="C128" s="8">
+        <v>1.07691699</v>
+      </c>
+      <c r="D128" s="1">
+        <v>125</v>
+      </c>
+      <c r="E128" s="8">
+        <v>21.942188810000001</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B129" s="1">
+        <v>126</v>
+      </c>
+      <c r="C129" s="8">
+        <v>1.07620966</v>
+      </c>
+      <c r="D129" s="1">
+        <v>126</v>
+      </c>
+      <c r="E129" s="8">
+        <v>21.963439090000001</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B130" s="1">
+        <v>127</v>
+      </c>
+      <c r="C130" s="8">
+        <v>1.07550444</v>
+      </c>
+      <c r="D130" s="1">
+        <v>127</v>
+      </c>
+      <c r="E130" s="8">
+        <v>21.14732991</v>
+      </c>
+    </row>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B131" s="1">
+        <v>128</v>
+      </c>
+      <c r="C131" s="8">
+        <v>1.07480124</v>
+      </c>
+      <c r="D131" s="1">
+        <v>128</v>
+      </c>
+      <c r="E131" s="8">
+        <v>21.97627001</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B132" s="1">
+        <v>129</v>
+      </c>
+      <c r="C132" s="8">
+        <v>1.0740995</v>
+      </c>
+      <c r="D132" s="1">
+        <v>129</v>
+      </c>
+      <c r="E132" s="8">
+        <v>22.017679340000001</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B133" s="1">
+        <v>130</v>
+      </c>
+      <c r="C133" s="8">
+        <v>1.0733997200000001</v>
+      </c>
+      <c r="D133" s="1">
+        <v>130</v>
+      </c>
+      <c r="E133" s="8">
+        <v>21.278450620000001</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B134" s="1">
+        <v>131</v>
+      </c>
+      <c r="C134" s="8">
+        <v>1.0727010699999999</v>
+      </c>
+      <c r="D134" s="1">
+        <v>131</v>
+      </c>
+      <c r="E134" s="8">
+        <v>21.298097049999999</v>
+      </c>
+    </row>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B135" s="1">
+        <v>132</v>
+      </c>
+      <c r="C135" s="8">
+        <v>1.0720035999999999</v>
+      </c>
+      <c r="D135" s="1">
+        <v>132</v>
+      </c>
+      <c r="E135" s="8">
+        <v>20.87821559</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B136" s="1">
+        <v>133</v>
+      </c>
+      <c r="C136" s="8">
+        <v>1.07130803</v>
+      </c>
+      <c r="D136" s="1">
+        <v>133</v>
+      </c>
+      <c r="E136" s="8">
+        <v>21.75647764</v>
+      </c>
+    </row>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B137" s="1">
+        <v>134</v>
+      </c>
+      <c r="C137" s="8">
+        <v>1.07061501</v>
+      </c>
+      <c r="D137" s="1">
+        <v>134</v>
+      </c>
+      <c r="E137" s="8">
+        <v>21.773045440000001</v>
+      </c>
+    </row>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B138" s="1">
+        <v>135</v>
+      </c>
+      <c r="C138" s="8">
+        <v>1.0699239700000001</v>
+      </c>
+      <c r="D138" s="1">
+        <v>135</v>
+      </c>
+      <c r="E138" s="8">
+        <v>22.60005482</v>
+      </c>
+    </row>
+    <row r="139" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B139" s="1">
+        <v>136</v>
+      </c>
+      <c r="C139" s="8">
+        <v>1.06923404</v>
+      </c>
+      <c r="D139" s="1">
+        <v>136</v>
+      </c>
+      <c r="E139" s="8">
+        <v>22.328791549999998</v>
+      </c>
+    </row>
+    <row r="140" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B140" s="1">
+        <v>137</v>
+      </c>
+      <c r="C140" s="8">
+        <v>1.0685452200000001</v>
+      </c>
+      <c r="D140" s="1">
+        <v>137</v>
+      </c>
+      <c r="E140" s="8">
+        <v>21.550744550000001</v>
+      </c>
+    </row>
+    <row r="141" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B141" s="1">
+        <v>138</v>
+      </c>
+      <c r="C141" s="8">
+        <v>1.06785749</v>
+      </c>
+      <c r="D141" s="1">
+        <v>138</v>
+      </c>
+      <c r="E141" s="8">
+        <v>21.504446949999998</v>
+      </c>
+    </row>
+    <row r="142" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B142" s="1">
+        <v>139</v>
+      </c>
+      <c r="C142" s="8">
+        <v>1.06717186</v>
+      </c>
+      <c r="D142" s="1">
+        <v>139</v>
+      </c>
+      <c r="E142" s="8">
+        <v>22.616956940000001</v>
+      </c>
+    </row>
+    <row r="143" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B143" s="1">
+        <v>140</v>
+      </c>
+      <c r="C143" s="8">
+        <v>1.0664881500000001</v>
+      </c>
+      <c r="D143" s="1">
+        <v>140</v>
+      </c>
+      <c r="E143" s="8">
+        <v>21.749031389999999</v>
+      </c>
+    </row>
+    <row r="144" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B144" s="1">
+        <v>141</v>
+      </c>
+      <c r="C144" s="8">
+        <v>1.0658055200000001</v>
+      </c>
+      <c r="D144" s="1">
+        <v>141</v>
+      </c>
+      <c r="E144" s="8">
+        <v>22.71149819</v>
+      </c>
+    </row>
+    <row r="145" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B145" s="1">
+        <v>142</v>
+      </c>
+      <c r="C145" s="8">
+        <v>1.065124</v>
+      </c>
+      <c r="D145" s="1">
+        <v>142</v>
+      </c>
+      <c r="E145" s="8">
+        <v>21.881931089999998</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B146" s="1">
+        <v>143</v>
+      </c>
+      <c r="C146" s="8">
+        <v>1.0644444200000001</v>
+      </c>
+      <c r="D146" s="1">
+        <v>143</v>
+      </c>
+      <c r="E146" s="8">
+        <v>21.943886989999999</v>
+      </c>
+    </row>
+    <row r="147" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B147" s="1">
+        <v>144</v>
+      </c>
+      <c r="C147" s="8">
+        <v>1.0637659100000001</v>
+      </c>
+      <c r="D147" s="1">
+        <v>144</v>
+      </c>
+      <c r="E147" s="8">
+        <v>21.932412329999998</v>
+      </c>
+    </row>
+    <row r="148" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B148" s="1">
+        <v>145</v>
+      </c>
+      <c r="C148" s="8">
+        <v>1.0630884700000001</v>
+      </c>
+      <c r="D148" s="1">
+        <v>145</v>
+      </c>
+      <c r="E148" s="8">
+        <v>22.831165989999999</v>
+      </c>
+    </row>
+    <row r="149" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B149" s="1">
+        <v>146</v>
+      </c>
+      <c r="C149" s="8">
+        <v>1.0624121</v>
+      </c>
+      <c r="D149" s="1">
+        <v>146</v>
+      </c>
+      <c r="E149" s="8">
+        <v>21.894270540000001</v>
+      </c>
+    </row>
+    <row r="150" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B150" s="1">
+        <v>147</v>
+      </c>
+      <c r="C150" s="8">
+        <v>1.0617367900000001</v>
+      </c>
+      <c r="D150" s="1">
+        <v>147</v>
+      </c>
+      <c r="E150" s="8">
+        <v>21.967459120000001</v>
+      </c>
+    </row>
+    <row r="151" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B151" s="1">
+        <v>148</v>
+      </c>
+      <c r="C151" s="8">
+        <v>1.06106297</v>
+      </c>
+      <c r="D151" s="1">
+        <v>148</v>
+      </c>
+      <c r="E151" s="8">
+        <v>21.99034765</v>
+      </c>
+    </row>
+    <row r="152" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B152" s="1">
+        <v>149</v>
+      </c>
+      <c r="C152" s="8">
+        <v>1.06039094</v>
+      </c>
+      <c r="D152" s="1">
+        <v>149</v>
+      </c>
+      <c r="E152" s="8">
+        <v>21.903472430000001</v>
+      </c>
+    </row>
+    <row r="153" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B153" s="1">
+        <v>150</v>
+      </c>
+      <c r="C153" s="8">
+        <v>1.0597202699999999</v>
+      </c>
+      <c r="D153" s="1">
+        <v>150</v>
+      </c>
+      <c r="E153" s="8">
+        <v>22.051190980000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{452F55AA-364B-4E59-862C-0CFAE45D80F0}">
+  <dimension ref="B2:K3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="16384" width="9.06640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G2:K2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>